--- a/GRADE SHEET 1 Test.xlsx
+++ b/GRADE SHEET 1 Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="One Student" sheetId="2" r:id="rId1"/>
@@ -2217,7 +2217,7 @@
   </sheetPr>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
@@ -2318,7 +2318,7 @@
       <c r="L4" s="137"/>
       <c r="M4" s="138">
         <f>VLOOKUP($B$2,GR,67)</f>
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.5">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B7" s="54">
         <f>VLOOKUP(B2,GR,6)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="53" t="s">
@@ -2392,27 +2392,27 @@
       </c>
       <c r="E7" s="57">
         <f>VLOOKUP(B2,GR,11)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7" s="57">
         <f>VLOOKUP(B2,GR,12)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G7" s="57">
         <f>VLOOKUP(B2,GR,13)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H7" s="57">
         <f>VLOOKUP(B2,GR,14)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I7" s="57">
         <f>VLOOKUP($B$2,GR,15)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J7" s="57">
         <f>VLOOKUP(B2,GR,16)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K7" s="143"/>
       <c r="L7" s="51"/>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B8" s="55">
         <f>VLOOKUP(B2,GR,7)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="38" t="s">
@@ -2432,27 +2432,27 @@
       </c>
       <c r="E8" s="56">
         <f>VLOOKUP($B$2,GR,18)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8" s="56">
         <f>VLOOKUP($B$2,GR,19)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G8" s="56">
         <f>VLOOKUP($B$2,GR,20)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H8" s="56">
         <f>VLOOKUP($B$2,GR,21)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I8" s="56">
         <f>VLOOKUP($B$2,GR,22)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J8" s="56">
         <f>VLOOKUP($B$2,GR,24)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="143"/>
       <c r="L8" s="38"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B9" s="55">
         <f>VLOOKUP(B2,GR,8)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="38" t="s">
@@ -2472,27 +2472,27 @@
       </c>
       <c r="E9" s="56">
         <f>VLOOKUP($B$2,GR,26)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F9" s="56">
         <f>VLOOKUP($B$2,GR,27)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G9" s="56">
         <f>VLOOKUP($B$2,GR,28)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H9" s="56">
         <f>VLOOKUP($B$2,GR,29)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I9" s="56">
         <f>VLOOKUP($B$2,GR,30)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J9" s="56">
         <f>VLOOKUP($B$2,GR,32)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="143"/>
       <c r="L9" s="38"/>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B10" s="58">
         <f>VLOOKUP(B2,GR,9)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="38" t="s">
@@ -2512,27 +2512,27 @@
       </c>
       <c r="E10" s="57">
         <f>VLOOKUP($B$2,GR,34)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F10" s="57">
         <f>VLOOKUP($B$2,GR,35)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G10" s="57">
         <f>VLOOKUP($B$2,GR,36)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H10" s="57">
         <f>VLOOKUP($B$2,GR,37)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I10" s="57">
         <f>VLOOKUP($B$2,GR,38)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J10" s="59">
         <f>VLOOKUP($B$2,GR,39)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="143"/>
       <c r="L10" s="38" t="s">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B11" s="99">
         <f>VLOOKUP(B2,GR,10)</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="100" t="s">
@@ -2562,7 +2562,7 @@
       <c r="I11" s="101"/>
       <c r="J11" s="101">
         <f>VLOOKUP(B2,GR,37)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K11" s="145"/>
       <c r="L11" s="100" t="s">
@@ -2691,11 +2691,11 @@
       </c>
       <c r="L15" s="50" t="str">
         <f>VLOOKUP($B$2,GR,68)</f>
-        <v/>
-      </c>
-      <c r="M15" s="75" t="str">
+        <v>E (Fail)</v>
+      </c>
+      <c r="M15" s="75">
         <f>VLOOKUP($B$2,GR,69)</f>
-        <v/>
+        <v>0.48749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2797,11 +2797,11 @@
       <c r="K19" s="61"/>
       <c r="L19" s="47" t="str">
         <f>VLOOKUP($B$2,GR,70)</f>
-        <v/>
-      </c>
-      <c r="M19" s="76" t="str">
+        <v>E (Fail)</v>
+      </c>
+      <c r="M19" s="76">
         <f>VLOOKUP($B$2,GR,71)</f>
-        <v/>
+        <v>0.35249999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.5">
@@ -3055,10 +3055,10 @@
   </sheetPr>
   <dimension ref="A1:HY102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AV4" sqref="AV4"/>
+      <selection pane="bottomLeft" activeCell="CH4" sqref="CH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.90625" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
@@ -4486,77 +4486,125 @@
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
       <c r="E4" s="117"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4">
+        <v>20</v>
+      </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4:J10" si="1">IF(SUM(F4:I4)=0,0,AVERAGE(F4:I4))</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>20</v>
+      </c>
+      <c r="L4" s="4">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4">
+        <v>20</v>
+      </c>
+      <c r="N4" s="4">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4">
+        <v>20</v>
+      </c>
       <c r="P4" s="3">
         <f>IF(SUM(K4:O4)=0,0,SUM(K4:O4))</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="91">
         <f>IF(P4=0,0,AVERAGE(K4:O4))</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="142"/>
+        <v>20</v>
+      </c>
+      <c r="R4" s="4">
+        <v>20</v>
+      </c>
+      <c r="S4" s="4">
+        <v>20</v>
+      </c>
+      <c r="T4" s="4">
+        <v>20</v>
+      </c>
+      <c r="U4" s="4">
+        <v>20</v>
+      </c>
+      <c r="V4" s="142">
+        <v>20</v>
+      </c>
       <c r="W4" s="5" t="str">
         <f t="shared" ref="W4:W67" si="2">IF($D4=0,"",$D4 &amp; ", " &amp; $E4)</f>
         <v/>
       </c>
       <c r="X4" s="113">
         <f>IF(SUM(R4:V4)=0,0,SUM(R4:V4))</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="94">
         <f>IF(X4=0,0,AVERAGE(R4:V4))</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="142"/>
+        <v>20</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="142">
+        <v>20</v>
+      </c>
       <c r="AE4" s="5" t="str">
         <f t="shared" ref="AE4:AE67" si="3">IF($D4=0,"",$D4 &amp; ", " &amp; $E4)</f>
         <v/>
       </c>
       <c r="AF4" s="113">
         <f>IF(SUM(Z4:AD4)=0,0,SUM(Z4:AD4))</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG4" s="94">
         <f>IF(AF4=0,0,AVERAGE(Z4:AD4))</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>20</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>20</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>20</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>20</v>
+      </c>
       <c r="AM4" s="113">
         <f>IF(SUM(AH4:AL4)=0,0,SUM(AH4:AL4))</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN4" s="94">
         <f>IF(AM4=0,0,AVERAGE(AH4:AL4))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO4" s="3">
         <f>IF((SUM(K4:O4)+SUM(R4:V4)+SUM(Z4:AD4)+SUM(AH4:AL4))=0,0,AVERAGE(K4:O4,R4:V4,Z4:AD4,AH4:AL4)*4)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AP4" s="2" t="str">
         <f>IF(D4=0,"",D4 &amp; ", " &amp; E4)</f>
@@ -4581,11 +4629,11 @@
       </c>
       <c r="AY4" s="8">
         <f>IF(J4=0,0,(SUM(F4:I4))/4)</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AZ4" s="8">
         <f>IF(AO4=0,0,(P4+X4+AF4+AM4)/4)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA4" s="8">
         <f>IF(AU4=0,0,(SUM(AQ4:AT4))/4)</f>
@@ -4597,11 +4645,11 @@
       </c>
       <c r="BC4" s="8">
         <f>IF(J4=0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="8">
         <f>IF(AO4=0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="8">
         <f>IF(AU4=0,0,1)</f>
@@ -4613,18 +4661,18 @@
       </c>
       <c r="BG4" s="8">
         <f>SUM(BC4:BF4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH4" s="8">
         <f>29-(COUNT(F4:I4)+COUNT(K4:N4)+COUNT(R4:U4)+COUNT(Z4:AC4)+COUNT(AH4:AK4)+COUNT(AQ4:AT4)+COUNT(AV4))</f>
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="BI4" s="31" t="s">
         <v>200</v>
       </c>
       <c r="BJ4" s="8">
         <f>IF(BC4+BD4=0,0,(J4+AO4)/(BC4+BD4))</f>
-        <v>0</v>
+        <v>48.75</v>
       </c>
       <c r="BK4" s="8">
         <f>IF(BE4+BF4=0,0,(AU4+AW4)/(BE4+BF4))</f>
@@ -4632,32 +4680,32 @@
       </c>
       <c r="BL4" s="31">
         <f>IF(BJ4=0,BK4,BJ4)</f>
-        <v>0</v>
+        <v>48.75</v>
       </c>
       <c r="BM4" s="31">
         <f>IF(BK4=0,BJ4,BK4)</f>
-        <v>0</v>
+        <v>48.75</v>
       </c>
       <c r="BN4" s="71"/>
       <c r="BO4" s="10">
         <f>IF(BH4=25,"",BH4)</f>
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="BP4" s="9" t="str">
         <f>IF(BQ4="","",VLOOKUP(BQ4,$BT$4:$BU$8,2))</f>
-        <v/>
-      </c>
-      <c r="BQ4" s="72" t="str">
+        <v>E (Fail)</v>
+      </c>
+      <c r="BQ4" s="72">
         <f>IF(BL4+BM4=0,"",((BL4*60%)+(BM4*40%))/100)</f>
-        <v/>
+        <v>0.48749999999999999</v>
       </c>
       <c r="BR4" s="83" t="str">
         <f t="shared" ref="BR4:BR67" si="4">IF(BS4="","",VLOOKUP(BS4,$BT$4:$BU$8,2))</f>
-        <v/>
-      </c>
-      <c r="BS4" s="84" t="str">
+        <v>E (Fail)</v>
+      </c>
+      <c r="BS4" s="84">
         <f>IF(BG4=0,"",((AY4*30%)+(AZ4*30%)+(BA4*20%)+(BB4*20%))/100)</f>
-        <v/>
+        <v>0.35249999999999998</v>
       </c>
       <c r="BT4" s="73">
         <v>0</v>
